--- a/Documentation/Work_Log.xlsx
+++ b/Documentation/Work_Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexa-Text-Based-Adventure\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kad61\Desktop\School Things\Compsci\thing\Alexa-Text-Based-Adventure\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80267E55-0C2B-4C99-8239-6CBBC22B1970}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E7340-5E90-4332-85A9-03CAF212AA44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="105" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Who Completed?</t>
   </si>
   <si>
-    <t>This spreadsheet is not the work breakdown; will be used later to form it</t>
-  </si>
-  <si>
     <t>Research how to use Github</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>8 hours</t>
+  </si>
+  <si>
+    <t>Finalize documentation</t>
+  </si>
+  <si>
+    <t>This spreadsheet is not the work breakdown; will be used later to update it</t>
   </si>
 </sst>
 </file>
@@ -153,10 +156,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -519,24 +524,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="6"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="6"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,398 +558,415 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43613</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43613</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43613</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43615</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43615</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43619</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43620</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43620</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43621</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43621</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43621</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43621</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43621</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43621</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43621</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43621</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43621</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43622</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43623</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43624</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43625</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43626</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43626</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43626</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
